--- a/data/trans_bre/P16-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.57599055897058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.320838613211135</v>
+        <v>9.320838613211125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4893979460841968</v>
@@ -649,7 +649,7 @@
         <v>0.1794857842329798</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1465134540757492</v>
+        <v>0.146513454075749</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.93816264527792</v>
+        <v>10.3270366796313</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.92714332503802</v>
+        <v>12.69554396957726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.423692198713577</v>
+        <v>2.975296671488648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.385947175480373</v>
+        <v>1.919650253365381</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2607057452389032</v>
+        <v>0.2384553857124927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1965449720394614</v>
+        <v>0.2030545680588195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03904703205447939</v>
+        <v>0.04779189821543482</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03570284645733014</v>
+        <v>0.03013858916291311</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.75136209402788</v>
+        <v>27.62694870766455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>28.58445177167392</v>
+        <v>28.5246325171374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.27735227853324</v>
+        <v>18.94437730248947</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.75927588606848</v>
+        <v>16.73593756344652</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8086669783400587</v>
+        <v>0.791487209972831</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5460465019451569</v>
+        <v>0.5578072924245735</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3380209679755672</v>
+        <v>0.3529013828059149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.290401441647123</v>
+        <v>0.2937134756658192</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.42209821094707</v>
+        <v>13.80456613024804</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>14.92468724382923</v>
+        <v>14.11891871956745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.47494449771922</v>
+        <v>12.36767833149564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.270891830969117</v>
+        <v>7.279275701036934</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3167982103174366</v>
+        <v>0.334497698180143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2777936468118977</v>
+        <v>0.2617127714394612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2421274721715829</v>
+        <v>0.2388615825705853</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1303623938174135</v>
+        <v>0.1316697437505019</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.23747109557323</v>
+        <v>26.51827992564278</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>27.04662414059482</v>
+        <v>26.62755730948777</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25.06374671613338</v>
+        <v>24.91591435474039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.11589470397802</v>
+        <v>20.43227012153339</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7528991350038863</v>
+        <v>0.7565444223278188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5745033007248724</v>
+        <v>0.5670326677604989</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5710898255139355</v>
+        <v>0.5584494216526107</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4714630452164728</v>
+        <v>0.4469012770931663</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>15.29589686433673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10.75318468933603</v>
+        <v>10.75318468933602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7101465957255172</v>
@@ -849,7 +849,7 @@
         <v>0.3027020359732709</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1809700307057718</v>
+        <v>0.1809700307057716</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.80631578942429</v>
+        <v>17.99780275906121</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.93798832496318</v>
+        <v>14.61533438589415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.131534715461203</v>
+        <v>7.863895266944241</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.343328006523498</v>
+        <v>3.960206332222165</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4339235950229756</v>
+        <v>0.4230781808822117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2600997139464355</v>
+        <v>0.2460861795539787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1308207840993119</v>
+        <v>0.1470772032789046</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.07253752155852974</v>
+        <v>0.06121594958106194</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>32.86210567804622</v>
+        <v>32.98221619750868</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.88700982164391</v>
+        <v>29.77513173525039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.49992274238826</v>
+        <v>23.24353160401427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.75559791233749</v>
+        <v>16.93018191594243</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.028317643021562</v>
+        <v>1.035126860549445</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.621838706993557</v>
+        <v>0.6022089108581546</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4927605354798311</v>
+        <v>0.5046102092522774</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3275966942356465</v>
+        <v>0.3090951360392087</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>13.50956439049248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.0504886292633</v>
+        <v>10.05048862926332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4467727363961869</v>
@@ -949,7 +949,7 @@
         <v>0.2213654379892128</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1846367857451501</v>
+        <v>0.1846367857451506</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.58896164256404</v>
+        <v>9.868786373243914</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>18.72489728261964</v>
+        <v>17.96384934686969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.054040788910888</v>
+        <v>6.880705809503842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.895475704980166</v>
+        <v>1.454576150964694</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2377811842644846</v>
+        <v>0.2123707313968689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3516981014352606</v>
+        <v>0.3380760407754275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08966418136269708</v>
+        <v>0.1058372835797657</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0323821609627616</v>
+        <v>0.02892539699839821</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.7972353261861</v>
+        <v>24.57626765801479</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>32.24243372115993</v>
+        <v>32.78919952688855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.86079232557658</v>
+        <v>20.06095934197057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.84616425372462</v>
+        <v>18.32187884324326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.677901231664591</v>
+        <v>0.6760482710803194</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7230778309215693</v>
+        <v>0.7294529287360152</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3464960589762557</v>
+        <v>0.3574181725507587</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3867314731250012</v>
+        <v>0.3873364471550968</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>21.62276068325197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.71846347417144</v>
+        <v>16.71846347417141</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.342556159798955</v>
@@ -1049,7 +1049,7 @@
         <v>0.5003672700258686</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3658078625965579</v>
+        <v>0.3658078625965574</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.62490280523182</v>
+        <v>6.323242839080044</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19.14032047507086</v>
+        <v>18.81733242482676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.15210866248039</v>
+        <v>11.48470983779811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.471777684395942</v>
+        <v>9.35235259157068</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1344548708785685</v>
+        <v>0.1230626581694027</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3239777772384581</v>
+        <v>0.3194051169516992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.254267416818093</v>
+        <v>0.2233158465384549</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1448702324411552</v>
+        <v>0.1857400336303469</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.22630413240981</v>
+        <v>26.05164967553114</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>36.93286240032293</v>
+        <v>37.0690980772161</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30.52520783377856</v>
+        <v>30.52396941343789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.52487466429777</v>
+        <v>24.37908097469264</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6335409255344434</v>
+        <v>0.6246757088854652</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7868931253162007</v>
+        <v>0.7838563768885085</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7995460631203561</v>
+        <v>0.8041252186689231</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5760292588919325</v>
+        <v>0.5864992434917808</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>17.32060556633174</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.364552006873748</v>
+        <v>7.364552006873703</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5989919303467338</v>
@@ -1149,7 +1149,7 @@
         <v>0.3754277955489988</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1281781008975415</v>
+        <v>0.1281781008975407</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.70470576268798</v>
+        <v>16.08303497690051</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.911777673734639</v>
+        <v>10.64084875843523</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.574470737141269</v>
+        <v>8.791416210292484</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1235851251422319</v>
+        <v>0.07091243928460442</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3616753403207784</v>
+        <v>0.3441225579217283</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1593954747143387</v>
+        <v>0.1647110415464171</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1743475316581782</v>
+        <v>0.1735324555549037</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.002014844025215897</v>
+        <v>0.001248727946506157</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>31.66156034989537</v>
+        <v>33.28072935830531</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>26.38431861077883</v>
+        <v>26.5464859092589</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25.5477902836707</v>
+        <v>25.82814588284144</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.37887027512517</v>
+        <v>14.43093974794225</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8951625056970224</v>
+        <v>0.9457038393468249</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4886686886574497</v>
+        <v>0.4913962446544444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6210799642627352</v>
+        <v>0.6262543182369174</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2681765153496062</v>
+        <v>0.2669993564570731</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>11.46257206433057</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.028769803924241</v>
+        <v>8.028769803924229</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4371355929569261</v>
@@ -1249,7 +1249,7 @@
         <v>0.2522469586610105</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1315902930439216</v>
+        <v>0.1315902930439214</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.30047684010908</v>
+        <v>10.49910623249153</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.07620728925762</v>
+        <v>9.984816039283144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.466133378965766</v>
+        <v>5.681492298472065</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.647398664043527</v>
+        <v>2.602314935380729</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.27436096516032</v>
+        <v>0.2487211064296878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1802555680065189</v>
+        <v>0.1811721980433087</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1096594530326834</v>
+        <v>0.1169263071116628</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.04083219659280386</v>
+        <v>0.04179625213221764</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.19418330987727</v>
+        <v>22.35644821903955</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.59596962392031</v>
+        <v>20.68712077984608</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.79232065689993</v>
+        <v>17.27078908724721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.81376473508038</v>
+        <v>13.32529678721894</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6147140108367886</v>
+        <v>0.6143302209775764</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.435536115503504</v>
+        <v>0.4260577174371105</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3945108402059952</v>
+        <v>0.4057890528369136</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2412837128812157</v>
+        <v>0.2361339036747952</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.204358769363825</v>
+        <v>6.769409225816013</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>12.13529439713614</v>
+        <v>12.01800218561947</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10.31425443397314</v>
+        <v>10.90609959768656</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8.028462926000326</v>
+        <v>8.506675147346007</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1511678462258616</v>
+        <v>0.1391345669738273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2719416476241679</v>
+        <v>0.2728814462325971</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.203178218576052</v>
+        <v>0.2099561441658465</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1987496166755017</v>
+        <v>0.2120721118601181</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.53771307573557</v>
+        <v>17.6180761966366</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.02372191138963</v>
+        <v>22.2979649244308</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20.54726204480292</v>
+        <v>20.61005679233321</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.48285221466179</v>
+        <v>17.77678630571955</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.420029870498223</v>
+        <v>0.420864744997079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5677094676414105</v>
+        <v>0.5762684623471402</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4545745863569283</v>
+        <v>0.448740016498105</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5030175133549094</v>
+        <v>0.5154509366674616</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>15.35492226838481</v>
+        <v>15.60561718307816</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>17.48685695314266</v>
+        <v>17.33866371384171</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.44387087291734</v>
+        <v>12.68636848533962</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.840774005018813</v>
+        <v>8.933448560993087</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3696401810412749</v>
+        <v>0.3700106444989856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3385304691001245</v>
+        <v>0.3338549514843839</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2398882449932229</v>
+        <v>0.2471608424686962</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1656762153680693</v>
+        <v>0.1669666249372772</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.39328781564415</v>
+        <v>20.41217165302005</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.21037999138065</v>
+        <v>22.31900946537465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.18343801513987</v>
+        <v>17.2666322530787</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.42017642169137</v>
+        <v>13.41796020115505</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.523032639337741</v>
+        <v>0.5197511961601252</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4544353495380194</v>
+        <v>0.4556277237418088</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3529118074904312</v>
+        <v>0.3575756651003574</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.261716736951567</v>
+        <v>0.2635230220962749</v>
       </c>
     </row>
     <row r="31">
